--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_178.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_178.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32279-d76716-Reviews-Dana_Point_Marina_Inn-Dana_Point_California.html</t>
+  </si>
+  <si>
+    <t>363</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>373</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Orange-County-Hotels-Dana-Point-Marina-Inn.h7583.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_178.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_178.xlsx
@@ -5270,7 +5270,7 @@
         <v>1949</v>
       </c>
       <c r="B4" t="n">
-        <v>134231</v>
+        <v>165102</v>
       </c>
       <c r="C4" t="s">
         <v>63</v>
@@ -5331,7 +5331,7 @@
         <v>1949</v>
       </c>
       <c r="B5" t="n">
-        <v>134232</v>
+        <v>165103</v>
       </c>
       <c r="C5" t="s">
         <v>69</v>
@@ -5453,7 +5453,7 @@
         <v>1949</v>
       </c>
       <c r="B7" t="n">
-        <v>134233</v>
+        <v>165104</v>
       </c>
       <c r="C7" t="s">
         <v>83</v>
@@ -5581,7 +5581,7 @@
         <v>1949</v>
       </c>
       <c r="B9" t="n">
-        <v>134234</v>
+        <v>165105</v>
       </c>
       <c r="C9" t="s">
         <v>98</v>
@@ -5642,7 +5642,7 @@
         <v>1949</v>
       </c>
       <c r="B10" t="n">
-        <v>134235</v>
+        <v>165106</v>
       </c>
       <c r="C10" t="s">
         <v>103</v>
@@ -5703,7 +5703,7 @@
         <v>1949</v>
       </c>
       <c r="B11" t="n">
-        <v>134236</v>
+        <v>134284</v>
       </c>
       <c r="C11" t="s">
         <v>111</v>
@@ -5835,7 +5835,7 @@
         <v>1949</v>
       </c>
       <c r="B13" t="n">
-        <v>134237</v>
+        <v>165107</v>
       </c>
       <c r="C13" t="s">
         <v>127</v>
@@ -5896,7 +5896,7 @@
         <v>1949</v>
       </c>
       <c r="B14" t="n">
-        <v>134238</v>
+        <v>165108</v>
       </c>
       <c r="C14" t="s">
         <v>133</v>
@@ -6028,7 +6028,7 @@
         <v>1949</v>
       </c>
       <c r="B16" t="n">
-        <v>134239</v>
+        <v>165109</v>
       </c>
       <c r="C16" t="s">
         <v>148</v>
@@ -6089,7 +6089,7 @@
         <v>1949</v>
       </c>
       <c r="B17" t="n">
-        <v>134240</v>
+        <v>165110</v>
       </c>
       <c r="C17" t="s">
         <v>155</v>
@@ -6156,7 +6156,7 @@
         <v>1949</v>
       </c>
       <c r="B18" t="n">
-        <v>134241</v>
+        <v>165111</v>
       </c>
       <c r="C18" t="s">
         <v>162</v>
@@ -6290,7 +6290,7 @@
         <v>1949</v>
       </c>
       <c r="B20" t="n">
-        <v>134242</v>
+        <v>165112</v>
       </c>
       <c r="C20" t="s">
         <v>175</v>
@@ -6357,7 +6357,7 @@
         <v>1949</v>
       </c>
       <c r="B21" t="n">
-        <v>134243</v>
+        <v>165113</v>
       </c>
       <c r="C21" t="s">
         <v>181</v>
@@ -6418,7 +6418,7 @@
         <v>1949</v>
       </c>
       <c r="B22" t="n">
-        <v>134244</v>
+        <v>165114</v>
       </c>
       <c r="C22" t="s">
         <v>188</v>
@@ -6479,7 +6479,7 @@
         <v>1949</v>
       </c>
       <c r="B23" t="n">
-        <v>134245</v>
+        <v>165115</v>
       </c>
       <c r="C23" t="s">
         <v>195</v>
@@ -6550,7 +6550,7 @@
         <v>1949</v>
       </c>
       <c r="B24" t="n">
-        <v>134246</v>
+        <v>165116</v>
       </c>
       <c r="C24" t="s">
         <v>204</v>
@@ -6617,7 +6617,7 @@
         <v>1949</v>
       </c>
       <c r="B25" t="n">
-        <v>134247</v>
+        <v>165117</v>
       </c>
       <c r="C25" t="s">
         <v>210</v>
@@ -6674,7 +6674,7 @@
         <v>1949</v>
       </c>
       <c r="B26" t="n">
-        <v>134248</v>
+        <v>165118</v>
       </c>
       <c r="C26" t="s">
         <v>215</v>
@@ -6873,7 +6873,7 @@
         <v>1949</v>
       </c>
       <c r="B29" t="n">
-        <v>134249</v>
+        <v>165119</v>
       </c>
       <c r="C29" t="s">
         <v>234</v>
@@ -6940,7 +6940,7 @@
         <v>1949</v>
       </c>
       <c r="B30" t="n">
-        <v>134250</v>
+        <v>165120</v>
       </c>
       <c r="C30" t="s">
         <v>242</v>
@@ -7007,7 +7007,7 @@
         <v>1949</v>
       </c>
       <c r="B31" t="n">
-        <v>134251</v>
+        <v>165121</v>
       </c>
       <c r="C31" t="s">
         <v>248</v>
@@ -7076,7 +7076,7 @@
         <v>1949</v>
       </c>
       <c r="B32" t="n">
-        <v>134252</v>
+        <v>165122</v>
       </c>
       <c r="C32" t="s">
         <v>258</v>
@@ -7143,7 +7143,7 @@
         <v>1949</v>
       </c>
       <c r="B33" t="n">
-        <v>134253</v>
+        <v>165123</v>
       </c>
       <c r="C33" t="s">
         <v>265</v>
@@ -7214,7 +7214,7 @@
         <v>1949</v>
       </c>
       <c r="B34" t="n">
-        <v>134254</v>
+        <v>165124</v>
       </c>
       <c r="C34" t="s">
         <v>274</v>
@@ -7285,7 +7285,7 @@
         <v>1949</v>
       </c>
       <c r="B35" t="n">
-        <v>134255</v>
+        <v>165125</v>
       </c>
       <c r="C35" t="s">
         <v>284</v>
@@ -7411,7 +7411,7 @@
         <v>1949</v>
       </c>
       <c r="B37" t="n">
-        <v>134256</v>
+        <v>165126</v>
       </c>
       <c r="C37" t="s">
         <v>299</v>
@@ -7476,7 +7476,7 @@
         <v>1949</v>
       </c>
       <c r="B38" t="n">
-        <v>134257</v>
+        <v>165127</v>
       </c>
       <c r="C38" t="s">
         <v>305</v>
@@ -7604,7 +7604,7 @@
         <v>1949</v>
       </c>
       <c r="B40" t="n">
-        <v>134258</v>
+        <v>165128</v>
       </c>
       <c r="C40" t="s">
         <v>321</v>
@@ -7671,7 +7671,7 @@
         <v>1949</v>
       </c>
       <c r="B41" t="n">
-        <v>134259</v>
+        <v>165129</v>
       </c>
       <c r="C41" t="s">
         <v>329</v>
@@ -7736,7 +7736,7 @@
         <v>1949</v>
       </c>
       <c r="B42" t="n">
-        <v>134260</v>
+        <v>165130</v>
       </c>
       <c r="C42" t="s">
         <v>335</v>
@@ -7868,7 +7868,7 @@
         <v>1949</v>
       </c>
       <c r="B44" t="n">
-        <v>134261</v>
+        <v>165131</v>
       </c>
       <c r="C44" t="s">
         <v>350</v>
@@ -7933,7 +7933,7 @@
         <v>1949</v>
       </c>
       <c r="B45" t="n">
-        <v>134262</v>
+        <v>165132</v>
       </c>
       <c r="C45" t="s">
         <v>357</v>
@@ -7998,7 +7998,7 @@
         <v>1949</v>
       </c>
       <c r="B46" t="n">
-        <v>134263</v>
+        <v>134269</v>
       </c>
       <c r="C46" t="s">
         <v>364</v>
@@ -8059,7 +8059,7 @@
         <v>1949</v>
       </c>
       <c r="B47" t="n">
-        <v>134264</v>
+        <v>165133</v>
       </c>
       <c r="C47" t="s">
         <v>371</v>
@@ -8126,7 +8126,7 @@
         <v>1949</v>
       </c>
       <c r="B48" t="n">
-        <v>134265</v>
+        <v>134256</v>
       </c>
       <c r="C48" t="s">
         <v>378</v>
@@ -8191,7 +8191,7 @@
         <v>1949</v>
       </c>
       <c r="B49" t="n">
-        <v>134266</v>
+        <v>165134</v>
       </c>
       <c r="C49" t="s">
         <v>385</v>
@@ -8315,7 +8315,7 @@
         <v>1949</v>
       </c>
       <c r="B51" t="n">
-        <v>134267</v>
+        <v>165135</v>
       </c>
       <c r="C51" t="s">
         <v>399</v>
@@ -8382,7 +8382,7 @@
         <v>1949</v>
       </c>
       <c r="B52" t="n">
-        <v>134268</v>
+        <v>165136</v>
       </c>
       <c r="C52" t="s">
         <v>407</v>
@@ -8449,7 +8449,7 @@
         <v>1949</v>
       </c>
       <c r="B53" t="n">
-        <v>134269</v>
+        <v>165137</v>
       </c>
       <c r="C53" t="s">
         <v>413</v>
@@ -8711,7 +8711,7 @@
         <v>1949</v>
       </c>
       <c r="B57" t="n">
-        <v>134270</v>
+        <v>165138</v>
       </c>
       <c r="C57" t="s">
         <v>439</v>
@@ -8772,7 +8772,7 @@
         <v>1949</v>
       </c>
       <c r="B58" t="n">
-        <v>134271</v>
+        <v>165139</v>
       </c>
       <c r="C58" t="s">
         <v>445</v>
@@ -8837,7 +8837,7 @@
         <v>1949</v>
       </c>
       <c r="B59" t="n">
-        <v>134272</v>
+        <v>165140</v>
       </c>
       <c r="C59" t="s">
         <v>452</v>
@@ -8904,7 +8904,7 @@
         <v>1949</v>
       </c>
       <c r="B60" t="n">
-        <v>134273</v>
+        <v>165141</v>
       </c>
       <c r="C60" t="s">
         <v>459</v>
@@ -8965,7 +8965,7 @@
         <v>1949</v>
       </c>
       <c r="B61" t="n">
-        <v>134274</v>
+        <v>165142</v>
       </c>
       <c r="C61" t="s">
         <v>465</v>
@@ -9209,7 +9209,7 @@
         <v>1949</v>
       </c>
       <c r="B65" t="n">
-        <v>134275</v>
+        <v>165143</v>
       </c>
       <c r="C65" t="s">
         <v>492</v>
@@ -9270,7 +9270,7 @@
         <v>1949</v>
       </c>
       <c r="B66" t="n">
-        <v>134276</v>
+        <v>165144</v>
       </c>
       <c r="C66" t="s">
         <v>499</v>
@@ -9331,7 +9331,7 @@
         <v>1949</v>
       </c>
       <c r="B67" t="n">
-        <v>134277</v>
+        <v>165145</v>
       </c>
       <c r="C67" t="s">
         <v>505</v>
@@ -9396,7 +9396,7 @@
         <v>1949</v>
       </c>
       <c r="B68" t="n">
-        <v>134278</v>
+        <v>165146</v>
       </c>
       <c r="C68" t="s">
         <v>513</v>
@@ -9579,7 +9579,7 @@
         <v>1949</v>
       </c>
       <c r="B71" t="n">
-        <v>134279</v>
+        <v>165147</v>
       </c>
       <c r="C71" t="s">
         <v>531</v>
@@ -9644,7 +9644,7 @@
         <v>1949</v>
       </c>
       <c r="B72" t="n">
-        <v>134280</v>
+        <v>165148</v>
       </c>
       <c r="C72" t="s">
         <v>538</v>
@@ -9709,7 +9709,7 @@
         <v>1949</v>
       </c>
       <c r="B73" t="n">
-        <v>134281</v>
+        <v>165149</v>
       </c>
       <c r="C73" t="s">
         <v>544</v>
@@ -9774,7 +9774,7 @@
         <v>1949</v>
       </c>
       <c r="B74" t="n">
-        <v>134282</v>
+        <v>165150</v>
       </c>
       <c r="C74" t="s">
         <v>552</v>
@@ -9841,7 +9841,7 @@
         <v>1949</v>
       </c>
       <c r="B75" t="n">
-        <v>134283</v>
+        <v>165151</v>
       </c>
       <c r="C75" t="s">
         <v>558</v>
@@ -9969,7 +9969,7 @@
         <v>1949</v>
       </c>
       <c r="B77" t="n">
-        <v>134284</v>
+        <v>165152</v>
       </c>
       <c r="C77" t="s">
         <v>570</v>
@@ -10034,7 +10034,7 @@
         <v>1949</v>
       </c>
       <c r="B78" t="n">
-        <v>134285</v>
+        <v>165153</v>
       </c>
       <c r="C78" t="s">
         <v>576</v>
@@ -10095,7 +10095,7 @@
         <v>1949</v>
       </c>
       <c r="B79" t="n">
-        <v>134286</v>
+        <v>165154</v>
       </c>
       <c r="C79" t="s">
         <v>582</v>
@@ -10227,7 +10227,7 @@
         <v>1949</v>
       </c>
       <c r="B81" t="n">
-        <v>134287</v>
+        <v>165155</v>
       </c>
       <c r="C81" t="s">
         <v>595</v>
@@ -10349,7 +10349,7 @@
         <v>1949</v>
       </c>
       <c r="B83" t="n">
-        <v>134288</v>
+        <v>165156</v>
       </c>
       <c r="C83" t="s">
         <v>608</v>
@@ -10414,7 +10414,7 @@
         <v>1949</v>
       </c>
       <c r="B84" t="n">
-        <v>134289</v>
+        <v>165157</v>
       </c>
       <c r="C84" t="s">
         <v>615</v>
@@ -10536,7 +10536,7 @@
         <v>1949</v>
       </c>
       <c r="B86" t="n">
-        <v>134290</v>
+        <v>165158</v>
       </c>
       <c r="C86" t="s">
         <v>628</v>
@@ -10670,7 +10670,7 @@
         <v>1949</v>
       </c>
       <c r="B88" t="n">
-        <v>134264</v>
+        <v>134256</v>
       </c>
       <c r="C88" t="s">
         <v>378</v>
@@ -10802,7 +10802,7 @@
         <v>1949</v>
       </c>
       <c r="B90" t="n">
-        <v>134291</v>
+        <v>165159</v>
       </c>
       <c r="C90" t="s">
         <v>655</v>
@@ -10869,7 +10869,7 @@
         <v>1949</v>
       </c>
       <c r="B91" t="n">
-        <v>134292</v>
+        <v>165160</v>
       </c>
       <c r="C91" t="s">
         <v>662</v>
@@ -10936,7 +10936,7 @@
         <v>1949</v>
       </c>
       <c r="B92" t="n">
-        <v>134293</v>
+        <v>165161</v>
       </c>
       <c r="C92" t="s">
         <v>670</v>
@@ -11068,7 +11068,7 @@
         <v>1949</v>
       </c>
       <c r="B94" t="n">
-        <v>134294</v>
+        <v>165162</v>
       </c>
       <c r="C94" t="s">
         <v>685</v>
@@ -11253,7 +11253,7 @@
         <v>1949</v>
       </c>
       <c r="B97" t="n">
-        <v>134295</v>
+        <v>165163</v>
       </c>
       <c r="C97" t="s">
         <v>705</v>
@@ -11387,7 +11387,7 @@
         <v>1949</v>
       </c>
       <c r="B99" t="n">
-        <v>134296</v>
+        <v>165164</v>
       </c>
       <c r="C99" t="s">
         <v>719</v>
@@ -11452,7 +11452,7 @@
         <v>1949</v>
       </c>
       <c r="B100" t="n">
-        <v>134297</v>
+        <v>165165</v>
       </c>
       <c r="C100" t="s">
         <v>726</v>
@@ -11517,7 +11517,7 @@
         <v>1949</v>
       </c>
       <c r="B101" t="n">
-        <v>134298</v>
+        <v>165166</v>
       </c>
       <c r="C101" t="s">
         <v>733</v>
@@ -11582,7 +11582,7 @@
         <v>1949</v>
       </c>
       <c r="B102" t="n">
-        <v>134299</v>
+        <v>165167</v>
       </c>
       <c r="C102" t="s">
         <v>739</v>
@@ -11649,7 +11649,7 @@
         <v>1949</v>
       </c>
       <c r="B103" t="n">
-        <v>134300</v>
+        <v>165168</v>
       </c>
       <c r="C103" t="s">
         <v>745</v>
@@ -11716,7 +11716,7 @@
         <v>1949</v>
       </c>
       <c r="B104" t="n">
-        <v>134301</v>
+        <v>165169</v>
       </c>
       <c r="C104" t="s">
         <v>752</v>
@@ -11783,7 +11783,7 @@
         <v>1949</v>
       </c>
       <c r="B105" t="n">
-        <v>134302</v>
+        <v>134264</v>
       </c>
       <c r="C105" t="s">
         <v>759</v>
@@ -11978,7 +11978,7 @@
         <v>1949</v>
       </c>
       <c r="B108" t="n">
-        <v>134303</v>
+        <v>165170</v>
       </c>
       <c r="C108" t="s">
         <v>781</v>
@@ -12049,7 +12049,7 @@
         <v>1949</v>
       </c>
       <c r="B109" t="n">
-        <v>134301</v>
+        <v>134264</v>
       </c>
       <c r="C109" t="s">
         <v>759</v>
@@ -12106,7 +12106,7 @@
         <v>1949</v>
       </c>
       <c r="B110" t="n">
-        <v>134304</v>
+        <v>165171</v>
       </c>
       <c r="C110" t="s">
         <v>794</v>
@@ -12248,7 +12248,7 @@
         <v>1949</v>
       </c>
       <c r="B112" t="n">
-        <v>134305</v>
+        <v>165172</v>
       </c>
       <c r="C112" t="s">
         <v>808</v>
@@ -12309,7 +12309,7 @@
         <v>1949</v>
       </c>
       <c r="B113" t="n">
-        <v>134306</v>
+        <v>165173</v>
       </c>
       <c r="C113" t="s">
         <v>815</v>
@@ -12380,7 +12380,7 @@
         <v>1949</v>
       </c>
       <c r="B114" t="n">
-        <v>134307</v>
+        <v>165174</v>
       </c>
       <c r="C114" t="s">
         <v>821</v>
@@ -12451,7 +12451,7 @@
         <v>1949</v>
       </c>
       <c r="B115" t="n">
-        <v>134308</v>
+        <v>165175</v>
       </c>
       <c r="C115" t="s">
         <v>828</v>
@@ -12512,7 +12512,7 @@
         <v>1949</v>
       </c>
       <c r="B116" t="n">
-        <v>134309</v>
+        <v>165176</v>
       </c>
       <c r="C116" t="s">
         <v>834</v>
@@ -12654,7 +12654,7 @@
         <v>1949</v>
       </c>
       <c r="B118" t="n">
-        <v>134310</v>
+        <v>165177</v>
       </c>
       <c r="C118" t="s">
         <v>847</v>
@@ -12715,7 +12715,7 @@
         <v>1949</v>
       </c>
       <c r="B119" t="n">
-        <v>134311</v>
+        <v>165178</v>
       </c>
       <c r="C119" t="s">
         <v>853</v>
@@ -12786,7 +12786,7 @@
         <v>1949</v>
       </c>
       <c r="B120" t="n">
-        <v>134312</v>
+        <v>165179</v>
       </c>
       <c r="C120" t="s">
         <v>860</v>
@@ -12847,7 +12847,7 @@
         <v>1949</v>
       </c>
       <c r="B121" t="n">
-        <v>134313</v>
+        <v>165180</v>
       </c>
       <c r="C121" t="s">
         <v>867</v>
@@ -12914,7 +12914,7 @@
         <v>1949</v>
       </c>
       <c r="B122" t="n">
-        <v>134314</v>
+        <v>165181</v>
       </c>
       <c r="C122" t="s">
         <v>873</v>
@@ -13056,7 +13056,7 @@
         <v>1949</v>
       </c>
       <c r="B124" t="n">
-        <v>134315</v>
+        <v>165182</v>
       </c>
       <c r="C124" t="s">
         <v>885</v>
@@ -13196,7 +13196,7 @@
         <v>1949</v>
       </c>
       <c r="B126" t="n">
-        <v>134316</v>
+        <v>165183</v>
       </c>
       <c r="C126" t="s">
         <v>898</v>
@@ -13263,7 +13263,7 @@
         <v>1949</v>
       </c>
       <c r="B127" t="n">
-        <v>134317</v>
+        <v>165184</v>
       </c>
       <c r="C127" t="s">
         <v>903</v>
@@ -13334,7 +13334,7 @@
         <v>1949</v>
       </c>
       <c r="B128" t="n">
-        <v>134318</v>
+        <v>165185</v>
       </c>
       <c r="C128" t="s">
         <v>909</v>
@@ -13405,7 +13405,7 @@
         <v>1949</v>
       </c>
       <c r="B129" t="n">
-        <v>134319</v>
+        <v>165186</v>
       </c>
       <c r="C129" t="s">
         <v>916</v>
@@ -13476,7 +13476,7 @@
         <v>1949</v>
       </c>
       <c r="B130" t="n">
-        <v>134320</v>
+        <v>165187</v>
       </c>
       <c r="C130" t="s">
         <v>922</v>
@@ -13547,7 +13547,7 @@
         <v>1949</v>
       </c>
       <c r="B131" t="n">
-        <v>134262</v>
+        <v>134269</v>
       </c>
       <c r="C131" t="s">
         <v>364</v>
@@ -13618,7 +13618,7 @@
         <v>1949</v>
       </c>
       <c r="B132" t="n">
-        <v>134321</v>
+        <v>165188</v>
       </c>
       <c r="C132" t="s">
         <v>934</v>
@@ -13689,7 +13689,7 @@
         <v>1949</v>
       </c>
       <c r="B133" t="n">
-        <v>134322</v>
+        <v>165189</v>
       </c>
       <c r="C133" t="s">
         <v>942</v>
@@ -13760,7 +13760,7 @@
         <v>1949</v>
       </c>
       <c r="B134" t="n">
-        <v>134323</v>
+        <v>134278</v>
       </c>
       <c r="C134" t="s">
         <v>948</v>
@@ -13831,7 +13831,7 @@
         <v>1949</v>
       </c>
       <c r="B135" t="n">
-        <v>134324</v>
+        <v>165190</v>
       </c>
       <c r="C135" t="s">
         <v>956</v>
@@ -13973,7 +13973,7 @@
         <v>1949</v>
       </c>
       <c r="B137" t="n">
-        <v>134325</v>
+        <v>165191</v>
       </c>
       <c r="C137" t="s">
         <v>967</v>
@@ -14044,7 +14044,7 @@
         <v>1949</v>
       </c>
       <c r="B138" t="n">
-        <v>134326</v>
+        <v>165192</v>
       </c>
       <c r="C138" t="s">
         <v>974</v>
@@ -14111,7 +14111,7 @@
         <v>1949</v>
       </c>
       <c r="B139" t="n">
-        <v>134327</v>
+        <v>134280</v>
       </c>
       <c r="C139" t="s">
         <v>980</v>
@@ -14182,7 +14182,7 @@
         <v>1949</v>
       </c>
       <c r="B140" t="n">
-        <v>134328</v>
+        <v>165193</v>
       </c>
       <c r="C140" t="s">
         <v>987</v>
@@ -14253,7 +14253,7 @@
         <v>1949</v>
       </c>
       <c r="B141" t="n">
-        <v>134329</v>
+        <v>165194</v>
       </c>
       <c r="C141" t="s">
         <v>994</v>
@@ -14395,7 +14395,7 @@
         <v>1949</v>
       </c>
       <c r="B143" t="n">
-        <v>134330</v>
+        <v>165195</v>
       </c>
       <c r="C143" t="s">
         <v>1006</v>
@@ -14462,7 +14462,7 @@
         <v>1949</v>
       </c>
       <c r="B144" t="n">
-        <v>134331</v>
+        <v>165196</v>
       </c>
       <c r="C144" t="s">
         <v>1012</v>
@@ -14523,7 +14523,7 @@
         <v>1949</v>
       </c>
       <c r="B145" t="n">
-        <v>134332</v>
+        <v>165197</v>
       </c>
       <c r="C145" t="s">
         <v>1017</v>
@@ -14590,7 +14590,7 @@
         <v>1949</v>
       </c>
       <c r="B146" t="n">
-        <v>134333</v>
+        <v>165198</v>
       </c>
       <c r="C146" t="s">
         <v>1023</v>
@@ -14661,7 +14661,7 @@
         <v>1949</v>
       </c>
       <c r="B147" t="n">
-        <v>134334</v>
+        <v>165199</v>
       </c>
       <c r="C147" t="s">
         <v>1030</v>
@@ -14732,7 +14732,7 @@
         <v>1949</v>
       </c>
       <c r="B148" t="n">
-        <v>134335</v>
+        <v>165200</v>
       </c>
       <c r="C148" t="s">
         <v>1037</v>
@@ -14874,7 +14874,7 @@
         <v>1949</v>
       </c>
       <c r="B150" t="n">
-        <v>134336</v>
+        <v>165201</v>
       </c>
       <c r="C150" t="s">
         <v>1050</v>
@@ -14945,7 +14945,7 @@
         <v>1949</v>
       </c>
       <c r="B151" t="n">
-        <v>134337</v>
+        <v>165202</v>
       </c>
       <c r="C151" t="s">
         <v>1056</v>
@@ -15083,7 +15083,7 @@
         <v>1949</v>
       </c>
       <c r="B153" t="n">
-        <v>134338</v>
+        <v>165203</v>
       </c>
       <c r="C153" t="s">
         <v>1068</v>
@@ -15154,7 +15154,7 @@
         <v>1949</v>
       </c>
       <c r="B154" t="n">
-        <v>134339</v>
+        <v>165204</v>
       </c>
       <c r="C154" t="s">
         <v>1074</v>
@@ -15225,7 +15225,7 @@
         <v>1949</v>
       </c>
       <c r="B155" t="n">
-        <v>134340</v>
+        <v>165205</v>
       </c>
       <c r="C155" t="s">
         <v>1080</v>
@@ -15296,7 +15296,7 @@
         <v>1949</v>
       </c>
       <c r="B156" t="n">
-        <v>134341</v>
+        <v>165206</v>
       </c>
       <c r="C156" t="s">
         <v>1086</v>
@@ -15367,7 +15367,7 @@
         <v>1949</v>
       </c>
       <c r="B157" t="n">
-        <v>134342</v>
+        <v>165207</v>
       </c>
       <c r="C157" t="s">
         <v>1093</v>
@@ -15708,7 +15708,7 @@
         <v>1949</v>
       </c>
       <c r="B162" t="n">
-        <v>134343</v>
+        <v>165208</v>
       </c>
       <c r="C162" t="s">
         <v>1127</v>
@@ -15779,7 +15779,7 @@
         <v>1949</v>
       </c>
       <c r="B163" t="n">
-        <v>134344</v>
+        <v>165209</v>
       </c>
       <c r="C163" t="s">
         <v>1134</v>
@@ -15840,7 +15840,7 @@
         <v>1949</v>
       </c>
       <c r="B164" t="n">
-        <v>134345</v>
+        <v>165210</v>
       </c>
       <c r="C164" t="s">
         <v>1140</v>
@@ -15911,7 +15911,7 @@
         <v>1949</v>
       </c>
       <c r="B165" t="n">
-        <v>134322</v>
+        <v>134278</v>
       </c>
       <c r="C165" t="s">
         <v>948</v>
@@ -16053,7 +16053,7 @@
         <v>1949</v>
       </c>
       <c r="B167" t="n">
-        <v>134346</v>
+        <v>165211</v>
       </c>
       <c r="C167" t="s">
         <v>1159</v>
@@ -16124,7 +16124,7 @@
         <v>1949</v>
       </c>
       <c r="B168" t="n">
-        <v>134347</v>
+        <v>165212</v>
       </c>
       <c r="C168" t="s">
         <v>1167</v>
@@ -16195,7 +16195,7 @@
         <v>1949</v>
       </c>
       <c r="B169" t="n">
-        <v>134326</v>
+        <v>134280</v>
       </c>
       <c r="C169" t="s">
         <v>980</v>
@@ -16266,7 +16266,7 @@
         <v>1949</v>
       </c>
       <c r="B170" t="n">
-        <v>134348</v>
+        <v>165213</v>
       </c>
       <c r="C170" t="s">
         <v>1180</v>
@@ -16408,7 +16408,7 @@
         <v>1949</v>
       </c>
       <c r="B172" t="n">
-        <v>134349</v>
+        <v>165214</v>
       </c>
       <c r="C172" t="s">
         <v>1195</v>
@@ -16479,7 +16479,7 @@
         <v>1949</v>
       </c>
       <c r="B173" t="n">
-        <v>134350</v>
+        <v>165215</v>
       </c>
       <c r="C173" t="s">
         <v>1202</v>
@@ -16550,7 +16550,7 @@
         <v>1949</v>
       </c>
       <c r="B174" t="n">
-        <v>134322</v>
+        <v>134278</v>
       </c>
       <c r="C174" t="s">
         <v>948</v>
@@ -16621,7 +16621,7 @@
         <v>1949</v>
       </c>
       <c r="B175" t="n">
-        <v>134351</v>
+        <v>165216</v>
       </c>
       <c r="C175" t="s">
         <v>1216</v>
@@ -16763,7 +16763,7 @@
         <v>1949</v>
       </c>
       <c r="B177" t="n">
-        <v>134352</v>
+        <v>165217</v>
       </c>
       <c r="C177" t="s">
         <v>1229</v>
@@ -16830,7 +16830,7 @@
         <v>1949</v>
       </c>
       <c r="B178" t="n">
-        <v>134235</v>
+        <v>134284</v>
       </c>
       <c r="C178" t="s">
         <v>111</v>
@@ -16897,7 +16897,7 @@
         <v>1949</v>
       </c>
       <c r="B179" t="n">
-        <v>134353</v>
+        <v>165218</v>
       </c>
       <c r="C179" t="s">
         <v>1243</v>
@@ -16964,7 +16964,7 @@
         <v>1949</v>
       </c>
       <c r="B180" t="n">
-        <v>134354</v>
+        <v>165219</v>
       </c>
       <c r="C180" t="s">
         <v>1249</v>
@@ -17031,7 +17031,7 @@
         <v>1949</v>
       </c>
       <c r="B181" t="n">
-        <v>134355</v>
+        <v>165220</v>
       </c>
       <c r="C181" t="s">
         <v>1255</v>
@@ -17098,7 +17098,7 @@
         <v>1949</v>
       </c>
       <c r="B182" t="n">
-        <v>134356</v>
+        <v>165221</v>
       </c>
       <c r="C182" t="s">
         <v>1261</v>
@@ -17169,7 +17169,7 @@
         <v>1949</v>
       </c>
       <c r="B183" t="n">
-        <v>134357</v>
+        <v>165222</v>
       </c>
       <c r="C183" t="s">
         <v>1268</v>
@@ -17230,7 +17230,7 @@
         <v>1949</v>
       </c>
       <c r="B184" t="n">
-        <v>134358</v>
+        <v>165223</v>
       </c>
       <c r="C184" t="s">
         <v>1275</v>
@@ -17301,7 +17301,7 @@
         <v>1949</v>
       </c>
       <c r="B185" t="n">
-        <v>134359</v>
+        <v>165224</v>
       </c>
       <c r="C185" t="s">
         <v>1283</v>
@@ -17372,7 +17372,7 @@
         <v>1949</v>
       </c>
       <c r="B186" t="n">
-        <v>134360</v>
+        <v>165225</v>
       </c>
       <c r="C186" t="s">
         <v>1290</v>
@@ -17443,7 +17443,7 @@
         <v>1949</v>
       </c>
       <c r="B187" t="n">
-        <v>134361</v>
+        <v>165226</v>
       </c>
       <c r="C187" t="s">
         <v>1297</v>
@@ -17585,7 +17585,7 @@
         <v>1949</v>
       </c>
       <c r="B189" t="n">
-        <v>134362</v>
+        <v>165227</v>
       </c>
       <c r="C189" t="s">
         <v>1313</v>
@@ -17646,7 +17646,7 @@
         <v>1949</v>
       </c>
       <c r="B190" t="n">
-        <v>134363</v>
+        <v>165228</v>
       </c>
       <c r="C190" t="s">
         <v>1320</v>
@@ -17717,7 +17717,7 @@
         <v>1949</v>
       </c>
       <c r="B191" t="n">
-        <v>134364</v>
+        <v>165229</v>
       </c>
       <c r="C191" t="s">
         <v>1327</v>
@@ -17788,7 +17788,7 @@
         <v>1949</v>
       </c>
       <c r="B192" t="n">
-        <v>134365</v>
+        <v>165230</v>
       </c>
       <c r="C192" t="s">
         <v>1335</v>
@@ -17859,7 +17859,7 @@
         <v>1949</v>
       </c>
       <c r="B193" t="n">
-        <v>134366</v>
+        <v>165231</v>
       </c>
       <c r="C193" t="s">
         <v>1342</v>
@@ -17930,7 +17930,7 @@
         <v>1949</v>
       </c>
       <c r="B194" t="n">
-        <v>134367</v>
+        <v>165232</v>
       </c>
       <c r="C194" t="s">
         <v>1348</v>
@@ -18001,7 +18001,7 @@
         <v>1949</v>
       </c>
       <c r="B195" t="n">
-        <v>134368</v>
+        <v>165233</v>
       </c>
       <c r="C195" t="s">
         <v>1356</v>
@@ -18072,7 +18072,7 @@
         <v>1949</v>
       </c>
       <c r="B196" t="n">
-        <v>134369</v>
+        <v>165234</v>
       </c>
       <c r="C196" t="s">
         <v>1363</v>
@@ -18143,7 +18143,7 @@
         <v>1949</v>
       </c>
       <c r="B197" t="n">
-        <v>134370</v>
+        <v>165235</v>
       </c>
       <c r="C197" t="s">
         <v>1370</v>
@@ -18200,7 +18200,7 @@
         <v>1949</v>
       </c>
       <c r="B198" t="n">
-        <v>134371</v>
+        <v>165236</v>
       </c>
       <c r="C198" t="s">
         <v>1376</v>
@@ -18271,7 +18271,7 @@
         <v>1949</v>
       </c>
       <c r="B199" t="n">
-        <v>134372</v>
+        <v>165237</v>
       </c>
       <c r="C199" t="s">
         <v>1384</v>
@@ -18342,7 +18342,7 @@
         <v>1949</v>
       </c>
       <c r="B200" t="n">
-        <v>134373</v>
+        <v>165238</v>
       </c>
       <c r="C200" t="s">
         <v>1391</v>
@@ -18413,7 +18413,7 @@
         <v>1949</v>
       </c>
       <c r="B201" t="n">
-        <v>134374</v>
+        <v>165239</v>
       </c>
       <c r="C201" t="s">
         <v>1399</v>
@@ -18484,7 +18484,7 @@
         <v>1949</v>
       </c>
       <c r="B202" t="n">
-        <v>134375</v>
+        <v>165240</v>
       </c>
       <c r="C202" t="s">
         <v>1406</v>
@@ -18555,7 +18555,7 @@
         <v>1949</v>
       </c>
       <c r="B203" t="n">
-        <v>134376</v>
+        <v>165241</v>
       </c>
       <c r="C203" t="s">
         <v>1413</v>
@@ -18612,7 +18612,7 @@
         <v>1949</v>
       </c>
       <c r="B204" t="n">
-        <v>134377</v>
+        <v>165242</v>
       </c>
       <c r="C204" t="s">
         <v>1420</v>
@@ -18740,7 +18740,7 @@
         <v>1949</v>
       </c>
       <c r="B206" t="n">
-        <v>134378</v>
+        <v>165243</v>
       </c>
       <c r="C206" t="s">
         <v>1433</v>
@@ -18811,7 +18811,7 @@
         <v>1949</v>
       </c>
       <c r="B207" t="n">
-        <v>134379</v>
+        <v>165244</v>
       </c>
       <c r="C207" t="s">
         <v>1440</v>
@@ -18878,7 +18878,7 @@
         <v>1949</v>
       </c>
       <c r="B208" t="n">
-        <v>134380</v>
+        <v>165245</v>
       </c>
       <c r="C208" t="s">
         <v>1446</v>
@@ -18935,7 +18935,7 @@
         <v>1949</v>
       </c>
       <c r="B209" t="n">
-        <v>134381</v>
+        <v>165246</v>
       </c>
       <c r="C209" t="s">
         <v>1453</v>
@@ -19069,7 +19069,7 @@
         <v>1949</v>
       </c>
       <c r="B211" t="n">
-        <v>134382</v>
+        <v>165247</v>
       </c>
       <c r="C211" t="s">
         <v>1465</v>
@@ -19199,7 +19199,7 @@
         <v>1949</v>
       </c>
       <c r="B213" t="n">
-        <v>134383</v>
+        <v>165248</v>
       </c>
       <c r="C213" t="s">
         <v>1478</v>
@@ -19264,7 +19264,7 @@
         <v>1949</v>
       </c>
       <c r="B214" t="n">
-        <v>134384</v>
+        <v>165249</v>
       </c>
       <c r="C214" t="s">
         <v>1485</v>
@@ -19451,7 +19451,7 @@
         <v>1949</v>
       </c>
       <c r="B217" t="n">
-        <v>134385</v>
+        <v>165250</v>
       </c>
       <c r="C217" t="s">
         <v>1502</v>
